--- a/financial_models/opportunities/1929.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD77831E-4369-9D40-ACDB-D7AFCD498ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{788FA625-74F3-2D4A-A6C6-8E471E94D10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4516,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.08</v>
+        <v>7.0799999237060547</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G5" s="250">
         <f>G3*G4/1000000</f>
-        <v>70713.176544000002</v>
+        <v>70713.175781996149</v>
       </c>
       <c r="H5" s="250"/>
       <c r="I5" s="38"/>
@@ -4733,7 +4733,7 @@
         <v>219</v>
       </c>
       <c r="G20" s="175">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="G24" s="181">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>8.6295798014433475E-2</v>
+        <v>8.6295798944355351E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G26" s="181">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.7683615819209045E-2</v>
+        <v>7.7683616656326226E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4850,20 +4850,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.5225517146373377</v>
+        <v>5.7551927099428113</v>
       </c>
       <c r="D29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.5919878156431437</v>
+        <v>9.5919878499046867</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.673590252514515</v>
+        <v>7.673590279923749</v>
       </c>
       <c r="G29" s="249">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>6.5470496132836891</v>
+        <v>6.5470496339235771</v>
       </c>
       <c r="H29" s="249"/>
     </row>
@@ -11721,17 +11721,17 @@
       </c>
       <c r="C87" s="162">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6295798014433475E-2</v>
+        <v>8.6295798944355351E-2</v>
       </c>
       <c r="D87" s="215"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6295798014433475E-2</v>
+        <v>8.6295798944355351E-2</v>
       </c>
       <c r="F87" s="215"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6295798014433475E-2</v>
+        <v>8.6295798944355351E-2</v>
       </c>
       <c r="I87" s="215"/>
       <c r="K87" s="24"/>
@@ -11772,17 +11772,17 @@
       </c>
       <c r="C89" s="162">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7683615819209045E-2</v>
+        <v>7.7683616656326226E-2</v>
       </c>
       <c r="D89" s="215"/>
       <c r="E89" s="162">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2146892655367242E-2</v>
+        <v>6.214689332506098E-2</v>
       </c>
       <c r="F89" s="215"/>
       <c r="H89" s="162">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7683615819209045E-2</v>
+        <v>7.7683616656326226E-2</v>
       </c>
       <c r="I89" s="215"/>
       <c r="K89" s="24"/>
@@ -11840,14 +11840,14 @@
       </c>
       <c r="F93" s="145">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>14.002947785677524</v>
+        <v>14.002947845613532</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>217</v>
       </c>
       <c r="I93" s="145">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>14.002947785677524</v>
+        <v>14.002947845613532</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="C94" s="185">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="146"/>
       <c r="E94" s="87" t="s">
@@ -11865,14 +11865,14 @@
       </c>
       <c r="F94" s="145">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>9.0122173143516164</v>
+        <v>9.0122173427630639</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>218</v>
       </c>
       <c r="I94" s="145">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>12.113653733467036</v>
+        <v>12.113653780514914</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11915,17 +11915,17 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>101601.59718050285</v>
+        <v>101601.5976153823</v>
       </c>
       <c r="D97" s="219"/>
       <c r="E97" s="123">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>10.172634623341581</v>
+        <v>10.172634666882921</v>
       </c>
       <c r="F97" s="219"/>
       <c r="H97" s="123">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>10.172634623341581</v>
+        <v>10.172634666882921</v>
       </c>
       <c r="I97" s="221"/>
       <c r="K97" s="24"/>
@@ -11975,27 +11975,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>101601.59718050285</v>
+        <v>101601.5976153823</v>
       </c>
       <c r="D100" s="109">
         <f>F100*(1-C94)</f>
-        <v>8.6467394298403448</v>
+        <v>7.6294760001621906</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>10.172634623341581</v>
+        <v>10.172634666882921</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.172634623341581</v>
+        <v>10.172634666882921</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.172634623341581</v>
+        <v>10.172634666882921</v>
       </c>
       <c r="I100" s="109">
         <f>F100*1.25</f>
-        <v>12.715793279176976</v>
+        <v>12.715793333603651</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12036,27 +12036,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>87893.391152301745</v>
+        <v>87893.391493668416</v>
       </c>
       <c r="D103" s="109">
         <f>F103*(1-C94)</f>
-        <v>6.5225517146373377</v>
+        <v>5.7551927099428113</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>6.5470496132836891</v>
+        <v>6.5470496339235771</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.673590252514515</v>
+        <v>7.673590279923749</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>8.80013089174534</v>
+        <v>8.80013092592392</v>
       </c>
       <c r="I103" s="109">
         <f>F103*1.25</f>
-        <v>9.5919878156431437</v>
+        <v>9.5919878499046867</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12097,27 +12097,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>83495.902767261068</v>
+        <v>83495.903087773666</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.5846455722388413</v>
+        <v>6.692334355052501</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.3598421183126348</v>
+        <v>8.3598421504032494</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.9231124379280473</v>
+        <v>8.9231124734033358</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.4863827575434598</v>
+        <v>9.4863827964034204</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.153890547410061</v>
+        <v>11.15389059175417</v>
       </c>
       <c r="K106" s="24"/>
     </row>
